--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="370">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,10 +303,6 @@
   </si>
   <si>
     <t>目标对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originObject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1498,6 +1494,22 @@
   </si>
   <si>
     <t>特殊标记信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true或false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2086,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,15 +2119,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2202,7 +2214,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>57</v>
@@ -2239,10 +2251,10 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2253,7 +2265,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2262,7 +2274,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>61</v>
@@ -2274,7 +2286,7 @@
         <v>63</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2303,7 +2315,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="28" t="s">
         <v>40</v>
@@ -2311,13 +2323,13 @@
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>15</v>
@@ -2329,13 +2341,13 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="L9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>40</v>
@@ -2361,13 +2373,13 @@
         <v>70</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>40</v>
@@ -2390,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>67</v>
@@ -2402,7 +2414,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
@@ -2416,19 +2428,19 @@
         <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>26</v>
@@ -2454,13 +2466,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2503,13 +2515,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2537,12 +2549,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2577,19 +2589,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2600,7 +2612,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>44</v>
@@ -2609,16 +2621,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M21" s="28"/>
     </row>
@@ -2639,13 +2651,13 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
@@ -2658,69 +2670,69 @@
         <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>89</v>
-      </c>
       <c r="I24" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="37"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="28" t="s">
         <v>96</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -2731,7 +2743,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2740,18 +2752,18 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>15</v>
@@ -2777,13 +2789,13 @@
     </row>
     <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>15</v>
@@ -2792,69 +2804,69 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="I30" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>363</v>
-      </c>
       <c r="J30" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
@@ -2870,7 +2882,7 @@
         <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="28" t="s">
         <v>28</v>
@@ -2910,18 +2922,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -2962,19 +2974,19 @@
         <v>28</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -3003,24 +3015,24 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="28"/>
@@ -3042,197 +3054,197 @@
         <v>27</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>171</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>172</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
     <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="D44" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
     <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="K46" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3243,16 +3255,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="11" t="s">
@@ -3307,13 +3319,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3322,10 +3334,10 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
@@ -3368,13 +3380,13 @@
       <c r="C52" s="3"/>
       <c r="F52" s="3"/>
       <c r="I52" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K52" s="32" t="s">
-        <v>112</v>
       </c>
       <c r="L52" s="26" t="s">
         <v>44</v>
@@ -3385,19 +3397,19 @@
     </row>
     <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M53" s="35"/>
     </row>
@@ -3418,7 +3430,7 @@
         <v>27</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>56</v>
@@ -3446,19 +3458,19 @@
         <v>36</v>
       </c>
       <c r="I55" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="K55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="L55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="35" t="s">
         <v>121</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M55" s="35" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -3469,7 +3481,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3478,16 +3490,16 @@
         <v>29</v>
       </c>
       <c r="I56" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="K56" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="L56" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="M56" s="35"/>
     </row>
@@ -3499,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3508,16 +3520,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="L57" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3555,13 +3567,13 @@
     </row>
     <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>15</v>
@@ -3587,13 +3599,13 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3602,13 +3614,13 @@
         <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>31</v>
@@ -3619,16 +3631,16 @@
     </row>
     <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
@@ -3651,16 +3663,16 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="F62" s="28"/>
     </row>
@@ -3675,7 +3687,7 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
@@ -3698,7 +3710,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
@@ -3735,13 +3747,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3750,13 +3762,13 @@
         <v>32</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>44</v>
@@ -3782,93 +3794,93 @@
         <v>36</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K67" s="7" t="s">
+      <c r="L67" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="M67" s="28"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="28"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I70" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="K73" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="37"/>
@@ -3884,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3906,15 +3918,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3951,192 +3963,192 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>224</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>262</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="F7" s="40"/>
       <c r="I7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="40"/>
       <c r="I8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="42"/>
       <c r="I9" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>232</v>
-      </c>
       <c r="I11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>305</v>
-      </c>
       <c r="I12" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>308</v>
-      </c>
       <c r="I13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4150,7 +4162,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -4164,7 +4176,7 @@
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="I16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4186,29 +4198,29 @@
     </row>
     <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4230,150 +4242,161 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="37"/>
+      <c r="I21" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="F22" s="40"/>
+      <c r="I22" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="42"/>
       <c r="I24" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K24" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I25" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="L25" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="36" t="s">
         <v>295</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I26" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="L26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>232</v>
-      </c>
       <c r="I27" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
@@ -4382,30 +4405,30 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="E28" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="373">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增这条记录的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fixedNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司级固定资产编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1182,10 +1174,6 @@
   </si>
   <si>
     <t>S0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备归属表(ascription)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1510,6 +1498,30 @@
   </si>
   <si>
     <t>true或false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给选项自行设置的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备归属表(ascription)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2119,15 +2131,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2214,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>57</v>
@@ -2251,7 +2263,7 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
@@ -2265,7 +2277,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2274,7 +2286,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>61</v>
@@ -2323,13 +2335,13 @@
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>15</v>
@@ -2341,13 +2353,13 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>40</v>
@@ -2379,7 +2391,7 @@
         <v>73</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>40</v>
@@ -2414,7 +2426,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
@@ -2428,7 +2440,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>30</v>
@@ -2437,10 +2449,10 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>26</v>
@@ -2466,13 +2478,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2515,13 +2527,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2549,12 +2561,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2589,19 +2601,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>131</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2612,7 +2624,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>44</v>
@@ -2621,16 +2633,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M21" s="28"/>
     </row>
@@ -2651,13 +2663,13 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
@@ -2670,69 +2682,69 @@
         <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="I24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="37"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -2743,7 +2755,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2752,18 +2764,18 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>15</v>
@@ -2789,13 +2801,13 @@
     </row>
     <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>15</v>
@@ -2804,69 +2816,69 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>109</v>
-      </c>
       <c r="I30" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
@@ -2922,18 +2934,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -2974,19 +2986,19 @@
         <v>28</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -3015,7 +3027,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3023,16 +3035,16 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="28"/>
@@ -3054,197 +3066,197 @@
         <v>27</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="L39" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
     <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
     <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3255,16 +3267,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="11" t="s">
@@ -3319,13 +3331,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3334,10 +3346,10 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
@@ -3380,13 +3392,13 @@
       <c r="C52" s="3"/>
       <c r="F52" s="3"/>
       <c r="I52" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L52" s="26" t="s">
         <v>44</v>
@@ -3397,19 +3409,19 @@
     </row>
     <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I53" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="K53" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="M53" s="35"/>
     </row>
@@ -3430,7 +3442,7 @@
         <v>27</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>56</v>
@@ -3458,19 +3470,19 @@
         <v>36</v>
       </c>
       <c r="I55" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="L55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M55" s="35" t="s">
         <v>119</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="M55" s="35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -3481,7 +3493,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3490,16 +3502,16 @@
         <v>29</v>
       </c>
       <c r="I56" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="L56" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="M56" s="35"/>
     </row>
@@ -3511,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3520,16 +3532,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="L57" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3567,13 +3579,13 @@
     </row>
     <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>15</v>
@@ -3599,13 +3611,13 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3614,13 +3626,13 @@
         <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>31</v>
@@ -3631,16 +3643,16 @@
     </row>
     <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
@@ -3663,16 +3675,16 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="F62" s="28"/>
     </row>
@@ -3687,7 +3699,7 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
@@ -3710,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
@@ -3747,13 +3759,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3762,13 +3774,13 @@
         <v>32</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>44</v>
@@ -3794,93 +3806,93 @@
         <v>36</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="M67" s="28"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I68" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="28"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I70" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J71" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="K71" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="37"/>
@@ -3896,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3918,15 +3930,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3963,192 +3975,192 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>261</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="F7" s="40"/>
       <c r="I7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="40"/>
       <c r="I8" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="42"/>
       <c r="I9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I10" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="E11" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>231</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4162,7 +4174,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -4176,7 +4188,7 @@
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="I16" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4198,29 +4210,29 @@
     </row>
     <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4242,193 +4254,204 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="40"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="37"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="40"/>
+      <c r="I23" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="42"/>
-      <c r="I24" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K24" s="18" t="s">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I25" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="L24" s="17" t="s">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I26" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="J26" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I25" s="4" t="s">
+      <c r="K26" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="L26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I26" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="E27" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="37"/>
+      <c r="I27" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>242</v>
-      </c>
+      <c r="I28" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="377">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1521,7 +1517,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>serialNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fixedNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2131,15 +2147,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2226,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>57</v>
@@ -2257,13 +2273,13 @@
         <v>58</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
@@ -2277,7 +2293,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2286,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>61</v>
@@ -2353,7 +2369,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2449,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2478,13 +2494,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2527,13 +2543,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2561,12 +2577,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2601,19 +2617,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2633,16 +2649,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M21" s="28"/>
     </row>
@@ -2651,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>371</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -2663,13 +2679,13 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
@@ -2691,13 +2707,13 @@
         <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
@@ -2719,13 +2735,13 @@
         <v>87</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="37"/>
@@ -2752,10 +2768,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2764,7 +2780,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2772,7 +2788,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -2804,7 +2820,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -2816,13 +2832,13 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
@@ -2832,53 +2848,53 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="I30" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>359</v>
-      </c>
       <c r="J30" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
@@ -2934,18 +2950,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -2986,19 +3002,19 @@
         <v>28</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -3027,7 +3043,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3035,16 +3051,16 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="28"/>
@@ -3066,197 +3082,197 @@
         <v>27</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
     <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="D44" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
     <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="K46" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3267,16 +3283,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="11" t="s">
@@ -3331,13 +3347,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3346,10 +3362,10 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
@@ -3392,13 +3408,13 @@
       <c r="C52" s="3"/>
       <c r="F52" s="3"/>
       <c r="I52" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="32" t="s">
         <v>108</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K52" s="32" t="s">
-        <v>109</v>
       </c>
       <c r="L52" s="26" t="s">
         <v>44</v>
@@ -3409,19 +3425,19 @@
     </row>
     <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M53" s="35"/>
     </row>
@@ -3442,7 +3458,7 @@
         <v>27</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>56</v>
@@ -3470,19 +3486,19 @@
         <v>36</v>
       </c>
       <c r="I55" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="K55" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="L55" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M55" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M55" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -3493,7 +3509,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3502,16 +3518,16 @@
         <v>29</v>
       </c>
       <c r="I56" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="K56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="L56" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="M56" s="35"/>
     </row>
@@ -3523,7 +3539,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3532,16 +3548,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="L57" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3611,13 +3627,13 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3626,13 +3642,13 @@
         <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>31</v>
@@ -3643,16 +3659,16 @@
     </row>
     <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
@@ -3675,16 +3691,16 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="F62" s="28"/>
     </row>
@@ -3699,7 +3715,7 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
@@ -3722,7 +3738,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
@@ -3759,13 +3775,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3774,13 +3790,13 @@
         <v>32</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J66" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>44</v>
@@ -3806,93 +3822,93 @@
         <v>36</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K67" s="7" t="s">
+      <c r="L67" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="M67" s="28"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I68" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="28"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="K73" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="37"/>
@@ -3930,15 +3946,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3975,192 +3991,192 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="40"/>
       <c r="I7" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="40"/>
       <c r="I8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="42"/>
       <c r="I9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>229</v>
-      </c>
       <c r="I11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>301</v>
-      </c>
       <c r="I12" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>304</v>
-      </c>
       <c r="I13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4174,7 +4190,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -4188,7 +4204,7 @@
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="I16" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4210,29 +4226,29 @@
     </row>
     <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4254,186 +4270,186 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="F22" s="40"/>
       <c r="I22" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="40"/>
       <c r="I23" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I25" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="L26" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="36" t="s">
         <v>291</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>229</v>
-      </c>
       <c r="I27" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="L27" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>293</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="E28" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>240</v>
-      </c>
       <c r="I28" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
@@ -4442,16 +4458,16 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="394">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,10 +870,6 @@
   </si>
   <si>
     <t>做这次操作的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表、操作表、选项表、扩展附表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1540,12 +1536,84 @@
     <t>location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作权限表、角色表、选项表、扩展附表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表（role）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如管理员是R0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如"addMachine,addPart"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作权限表（operate_authority）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1636,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1584,7 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1826,23 +1902,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,15 +2289,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2279,7 +2421,7 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
@@ -2293,7 +2435,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2369,7 +2511,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2465,7 +2607,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2494,13 +2636,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2543,13 +2685,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2577,12 +2719,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2667,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -2751,7 +2893,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>92</v>
@@ -2768,10 +2910,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2780,7 +2922,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2788,7 +2930,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -2820,7 +2962,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -2848,25 +2990,25 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
@@ -2882,13 +3024,13 @@
         <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>158</v>
@@ -2950,18 +3092,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -3043,7 +3185,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3051,7 +3193,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>154</v>
@@ -3140,13 +3282,13 @@
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
@@ -3164,13 +3306,13 @@
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
@@ -3188,13 +3330,13 @@
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
@@ -3214,13 +3356,13 @@
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
@@ -3240,13 +3382,13 @@
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
@@ -3266,13 +3408,13 @@
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="K46" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3347,13 +3489,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3362,10 +3504,10 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
@@ -3425,7 +3567,7 @@
     </row>
     <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I53" s="34" t="s">
         <v>112</v>
@@ -3509,7 +3651,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3539,7 +3681,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3627,13 +3769,13 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3642,13 +3784,13 @@
         <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>31</v>
@@ -3659,16 +3801,16 @@
     </row>
     <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
@@ -3691,16 +3833,16 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="F62" s="28"/>
     </row>
@@ -3715,7 +3857,7 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
@@ -3738,7 +3880,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
@@ -3775,13 +3917,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3902,13 +4044,13 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="K73" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="37"/>
@@ -3922,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3946,31 +4088,35 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="B4" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="I4" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="43" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -3990,221 +4136,231 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>220</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>258</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="49"/>
       <c r="I7" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
       <c r="I8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="I9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="I10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>228</v>
-      </c>
+      <c r="F11" s="40"/>
       <c r="I11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>300</v>
-      </c>
+      <c r="F12" s="40"/>
       <c r="I12" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>303</v>
-      </c>
+      <c r="F13" s="40"/>
       <c r="I13" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="I16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4226,230 +4382,248 @@
     </row>
     <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="B19" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="I19" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="43" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>220</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="49"/>
       <c r="I22" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="40"/>
+      <c r="D23" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="I23" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="I25" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="I26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="M25" s="24" t="s">
+      <c r="D27" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="I27" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I26" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K27" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" s="36" t="s">
+      <c r="L27" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="M27" s="28" t="s">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="I28" s="11" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
@@ -4457,21 +4631,242 @@
       <c r="M28" s="37"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="F29" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="36"/>
+      <c r="I36" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="28"/>
+      <c r="I37" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" s="62"/>
+    </row>
+    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="28"/>
+      <c r="I38" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="28"/>
+      <c r="I39" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" s="64"/>
+      <c r="M39" s="65"/>
+    </row>
+    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="37"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I42" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="J42" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="L42" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" s="55"/>
+    </row>
+    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I43" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>241</v>
-      </c>
+      <c r="J43" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" s="55"/>
+    </row>
+    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I44" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="L44" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="M44" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jochenshi/Desktop/Personal/code/asset-activity/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
     <sheet name="工具表" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="396">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1585,34 +1596,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如"addMachine,addPart"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色补充说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作权限表（operate_authority）</t>
+    <t>操作权限表（authority）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给操作设定的值，不可重复</t>
+    <rPh sb="8" eb="9">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chon'fu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1675,11 +1700,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1688,7 +1713,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1696,17 +1721,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1716,7 +1741,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1724,12 +1749,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1738,31 +1763,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,23 +1795,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2268,23 +2293,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="9" max="9" width="17.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="44" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2394,7 +2419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -2555,7 +2580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2612,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2700,7 +2725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
@@ -2832,7 +2857,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2925,7 +2950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>88</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
@@ -3041,7 +3066,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="2:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="60" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3127,7 +3152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
@@ -3341,7 +3366,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>179</v>
       </c>
@@ -3367,7 +3392,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="105" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>181</v>
       </c>
@@ -3487,7 +3512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>342</v>
       </c>
@@ -3513,7 +3538,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
@@ -3565,7 +3590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>305</v>
       </c>
@@ -3611,7 +3636,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>41</v>
       </c>
@@ -3643,7 +3668,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
@@ -3673,7 +3698,7 @@
       </c>
       <c r="M56" s="35"/>
     </row>
-    <row r="57" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
@@ -3703,7 +3728,7 @@
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
@@ -3735,7 +3760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>95</v>
       </c>
@@ -3799,7 +3824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>309</v>
       </c>
@@ -3846,7 +3871,7 @@
       </c>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="2:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>38</v>
       </c>
@@ -3947,7 +3972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4064,26 +4089,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -4189,7 +4214,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
         <v>214</v>
       </c>
@@ -4213,7 +4238,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>334</v>
       </c>
@@ -4239,7 +4264,7 @@
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
@@ -4259,7 +4284,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>224</v>
       </c>
@@ -4285,7 +4310,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>228</v>
       </c>
@@ -4380,7 +4405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
         <v>277</v>
       </c>
@@ -4393,7 +4418,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>243</v>
       </c>
@@ -4469,7 +4494,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
         <v>245</v>
       </c>
@@ -4495,7 +4520,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
         <v>246</v>
       </c>
@@ -4532,7 +4557,7 @@
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
@@ -4692,7 +4717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>379</v>
       </c>
@@ -4704,23 +4729,21 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
-      <c r="I36" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I36" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>382</v>
       </c>
@@ -4733,20 +4756,18 @@
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
       <c r="I37" s="61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>223</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L37" s="23"/>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>384</v>
       </c>
@@ -4758,19 +4779,19 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
-      <c r="I38" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="62"/>
-    </row>
-    <row r="39" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I38" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="65"/>
+    </row>
+    <row r="39" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>387</v>
       </c>
@@ -4778,91 +4799,78 @@
         <v>393</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="28"/>
-      <c r="I39" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="J39" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="65"/>
-    </row>
-    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>391</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="37"/>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
-      <c r="K40" s="66"/>
+      <c r="K40" s="55"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
+      <c r="I41" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="J41" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="58" t="s">
+        <v>124</v>
+      </c>
       <c r="M41" s="55"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I42" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="J42" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="L42" s="58" t="s">
-        <v>124</v>
+      <c r="I42" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>238</v>
       </c>
       <c r="M42" s="55"/>
     </row>
-    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I43" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L43" s="60" t="s">
-        <v>238</v>
+    <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="I43" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="L43" s="65" t="s">
+        <v>240</v>
       </c>
       <c r="M43" s="55"/>
-    </row>
-    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I44" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="J44" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="L44" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="M44" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jochenshi/Desktop/Personal/code/asset-activity/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="405">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,14 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加这条记录时机器的健康状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选择健康、损坏、故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健康状态描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,10 +525,6 @@
   </si>
   <si>
     <t>自行输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选项（认为损坏、机器老化、机器缺陷），可增加自定义选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1633,11 +1616,59 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选项（人为损坏、机器老化、机器缺陷），可增加自定义选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录这条健康记录时，机器的出错状态是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器的实际状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选项：轻伤、损坏、故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由系统判定健康、轻伤、损坏、故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前修复的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作由系统设定值，存在未修复、已修复、不修复、部分修复等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2291,38 +2322,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="H46" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="9" max="9" width="17.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="44" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="13" max="13" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2409,7 +2440,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>57</v>
@@ -2419,7 +2450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2446,13 +2477,13 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2460,7 +2491,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2469,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>61</v>
@@ -2484,7 +2515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2516,7 +2547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -2536,7 +2567,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2580,7 +2611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2612,7 +2643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2632,7 +2663,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2661,13 +2692,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2710,13 +2741,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2725,7 +2756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
@@ -2744,12 +2775,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2784,19 +2815,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2816,16 +2847,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M21" s="28"/>
     </row>
@@ -2834,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -2846,18 +2877,18 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2874,13 +2905,13 @@
         <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
@@ -2902,13 +2933,13 @@
         <v>87</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="37"/>
@@ -2918,7 +2949,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>92</v>
@@ -2935,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2947,15 +2978,15 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -2982,12 +3013,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -2999,13 +3030,13 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
@@ -3015,25 +3046,25 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
@@ -3049,24 +3080,24 @@
         <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="2:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="57" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3117,18 +3148,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -3152,7 +3183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
@@ -3172,16 +3203,16 @@
         <v>107</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -3210,7 +3241,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3218,16 +3249,16 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="28"/>
@@ -3249,197 +3280,197 @@
         <v>27</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3450,16 +3481,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="11" t="s">
@@ -3512,15 +3543,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3529,16 +3560,16 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
@@ -3590,9 +3621,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I53" s="34" t="s">
         <v>112</v>
@@ -3636,7 +3667,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>41</v>
       </c>
@@ -3662,13 +3693,13 @@
         <v>117</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>127</v>
+        <v>394</v>
       </c>
       <c r="M55" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
@@ -3676,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3685,20 +3716,20 @@
         <v>29</v>
       </c>
       <c r="I56" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="L56" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="M56" s="35"/>
     </row>
-    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
@@ -3706,7 +3737,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3715,20 +3746,20 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
@@ -3744,23 +3775,21 @@
       <c r="F58" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>51</v>
+      <c r="I58" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>23</v>
+        <v>398</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="M58" s="35"/>
+    </row>
+    <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>95</v>
       </c>
@@ -3776,31 +3805,29 @@
       <c r="F59" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>52</v>
+      <c r="I59" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>26</v>
+        <v>403</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3809,69 +3836,84 @@
         <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M61" s="15" t="s">
+      <c r="I61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="F62" s="28"/>
-    </row>
-    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="I62" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>38</v>
       </c>
@@ -3882,10 +3924,25 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
@@ -3904,9 +3961,6 @@
       <c r="F64" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -3924,31 +3978,16 @@
       <c r="F65" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M65" s="30" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3956,23 +3995,11 @@
       <c r="F66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L66" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M66" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="I66" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>33</v>
       </c>
@@ -3988,97 +4015,131 @@
       <c r="F67" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M67" s="28"/>
+      <c r="I67" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I68" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="28"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I70" s="6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I73" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="37"/>
+      <c r="I73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L73" s="8"/>
+      <c r="M73" s="28"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L74" s="8"/>
+      <c r="M74" s="28"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I75" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4091,41 +4152,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="3"/>
     <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="2"/>
+    <col min="14" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="I4" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4162,202 +4223,202 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>218</v>
-      </c>
       <c r="F6" s="46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" s="49"/>
       <c r="I7" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
       <c r="I8" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="52"/>
       <c r="I9" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="I10" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="F11" s="40"/>
       <c r="I11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F12" s="40"/>
       <c r="I12" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F13" s="40"/>
       <c r="I13" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4371,7 +4432,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -4385,7 +4446,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="I16" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4405,35 +4466,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>280</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="I19" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4455,130 +4516,130 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="E21" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>218</v>
-      </c>
       <c r="F21" s="46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F22" s="49"/>
       <c r="I22" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="I23" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="I25" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -4588,67 +4649,67 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="I26" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="M26" s="36" t="s">
         <v>287</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="F27" s="40"/>
       <c r="I27" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="M27" s="28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F28" s="40"/>
       <c r="I28" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
@@ -4657,28 +4718,28 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4717,89 +4778,89 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M36" s="62"/>
     </row>
-    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
       <c r="I37" s="61" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="62"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
       <c r="I38" s="63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J38" s="64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K38" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L38" s="64"/>
       <c r="M38" s="65"/>
     </row>
-    <row r="39" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="28"/>
@@ -4811,13 +4872,13 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="37"/>
@@ -4829,46 +4890,46 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I41" s="56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J41" s="57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K41" s="57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L41" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M41" s="55"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I42" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J42" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="M42" s="55"/>
+    </row>
+    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I43" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K43" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" s="65" t="s">
         <v>237</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="M42" s="55"/>
-    </row>
-    <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="I43" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="K43" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="L43" s="65" t="s">
-        <v>240</v>
       </c>
       <c r="M43" s="55"/>
     </row>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -2293,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A21" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4091,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -520,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前设备的健康状态描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自行输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,10 +1617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可选项（人为损坏、机器老化、机器缺陷），可增加自定义选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出错状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1661,7 +1653,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行操作由系统设定值，存在未修复、已修复、不修复、部分修复等</t>
+    <t>当前设备的健康状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作由系统设定值，存在未修复、已修复、不修复、部分修复，自动修复等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选项（人为损坏、无故损坏、意外损坏、机器老化、机器缺陷），可增加自定义选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H46" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2345,15 +2345,15 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2440,7 +2440,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>57</v>
@@ -2477,7 +2477,7 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
@@ -2491,7 +2491,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2500,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>61</v>
@@ -2567,7 +2567,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2663,7 +2663,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2692,13 +2692,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2775,12 +2775,12 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
@@ -2815,19 +2815,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2847,16 +2847,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M21" s="28"/>
     </row>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -2877,13 +2877,13 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
@@ -2905,13 +2905,13 @@
         <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
@@ -2933,13 +2933,13 @@
         <v>87</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="37"/>
@@ -2949,7 +2949,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>92</v>
@@ -2966,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -2978,7 +2978,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -3018,7 +3018,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -3030,13 +3030,13 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
@@ -3046,25 +3046,25 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
@@ -3080,19 +3080,19 @@
         <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
@@ -3148,18 +3148,18 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -3203,16 +3203,16 @@
         <v>107</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -3241,7 +3241,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3249,16 +3249,16 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="28"/>
@@ -3280,197 +3280,197 @@
         <v>27</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="28"/>
       <c r="I41" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
     <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="D44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
     <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F45" s="28"/>
       <c r="I45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="K46" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3481,16 +3481,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="11" t="s">
@@ -3545,13 +3545,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3560,10 +3560,10 @@
         <v>32</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1"/>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I53" s="34" t="s">
         <v>112</v>
@@ -3693,7 +3693,7 @@
         <v>117</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M55" s="35" t="s">
         <v>118</v>
@@ -3707,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3719,13 +3719,13 @@
         <v>121</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K56" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="M56" s="35"/>
     </row>
@@ -3737,7 +3737,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3746,16 +3746,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K57" s="8" t="s">
+      <c r="L57" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3782,10 +3782,10 @@
         <v>120</v>
       </c>
       <c r="K58" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>400</v>
       </c>
       <c r="M58" s="35"/>
     </row>
@@ -3806,28 +3806,28 @@
         <v>29</v>
       </c>
       <c r="I59" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="8" t="s">
+      <c r="L59" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="M59" s="35"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
@@ -3885,26 +3885,26 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="F62" s="28"/>
       <c r="I62" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -3924,7 +3924,7 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>30</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -3996,7 +3996,7 @@
         <v>32</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
@@ -4036,10 +4036,10 @@
         <v>107</v>
       </c>
       <c r="J68" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="L68" s="26" t="s">
         <v>44</v>
@@ -4050,93 +4050,93 @@
     </row>
     <row r="69" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I70" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="K74" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I75" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="K75" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="L75" s="13"/>
       <c r="M75" s="37"/>
@@ -4174,19 +4174,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="I4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4223,105 +4223,105 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="F6" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>216</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="D7" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>219</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>220</v>
       </c>
       <c r="F7" s="49"/>
       <c r="I7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
       <c r="I8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>331</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>332</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="52"/>
       <c r="I9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" s="28"/>
     </row>
@@ -4329,96 +4329,96 @@
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="I10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" s="43" t="s">
         <v>223</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>224</v>
       </c>
       <c r="F11" s="40"/>
       <c r="I11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>295</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>296</v>
       </c>
       <c r="F12" s="40"/>
       <c r="I12" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="52" t="s">
         <v>298</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>299</v>
       </c>
       <c r="F13" s="40"/>
       <c r="I13" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -4446,7 +4446,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="I16" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4468,33 +4468,33 @@
     </row>
     <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="I19" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4516,104 +4516,104 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>216</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>219</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>220</v>
       </c>
       <c r="F22" s="49"/>
       <c r="I22" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="I23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>333</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>334</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
@@ -4622,24 +4622,24 @@
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="I25" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="24" t="s">
         <v>281</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -4649,67 +4649,67 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="I26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="L26" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="36" t="s">
         <v>286</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="E27" s="43" t="s">
         <v>223</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>224</v>
       </c>
       <c r="F27" s="40"/>
       <c r="I27" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="L27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>288</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="E28" s="46" t="s">
         <v>234</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>235</v>
       </c>
       <c r="F28" s="40"/>
       <c r="I28" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
@@ -4718,28 +4718,28 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>236</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>237</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4780,87 +4780,87 @@
     </row>
     <row r="36" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
       <c r="I37" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="62"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
       <c r="I38" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J38" s="64" t="s">
         <v>122</v>
       </c>
       <c r="K38" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L38" s="64"/>
       <c r="M38" s="65"/>
     </row>
     <row r="39" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="28"/>
@@ -4872,13 +4872,13 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="37"/>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I41" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J41" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K41" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L41" s="58" t="s">
         <v>122</v>
@@ -4905,31 +4905,31 @@
     </row>
     <row r="42" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I42" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J42" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K42" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="L42" s="60" t="s">
         <v>234</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>235</v>
       </c>
       <c r="M42" s="55"/>
     </row>
     <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I43" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J43" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" s="65" t="s">
         <v>236</v>
-      </c>
-      <c r="K43" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="L43" s="65" t="s">
-        <v>237</v>
       </c>
       <c r="M43" s="55"/>
     </row>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="410">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1662,6 +1662,26 @@
   </si>
   <si>
     <t>可选项（人为损坏、无故损坏、意外损坏、机器老化、机器缺陷），可增加自定义选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统判断填入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被删除，false表示没背删除，true表示被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relatedId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2322,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3659,7 +3679,7 @@
         <v>113</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>56</v>
+        <v>409</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>57</v>
@@ -3929,21 +3949,19 @@
       <c r="F63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I63" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
@@ -3961,6 +3979,21 @@
       <c r="F64" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="I64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -3995,9 +4028,6 @@
       <c r="F66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
@@ -4015,131 +4045,136 @@
       <c r="F67" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I68" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="K68" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L67" s="18" t="s">
+      <c r="L68" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I68" s="4" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L69" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M68" s="33" t="s">
+      <c r="M69" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I69" s="6" t="s">
+    <row r="70" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I70" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I74" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" s="8"/>
+      <c r="M75" s="28"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I76" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K75" s="12" t="s">
+      <c r="K76" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="37"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135"/>
+    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="412">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1535,14 +1535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色表（role）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,10 +1563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色补充说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,15 +1575,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如"addMachine,addPart"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作权限表（authority）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1662,6 +1642,54 @@
   </si>
   <si>
     <t>可选项（人为损坏、无故损坏、意外损坏、机器老化、机器缺陷），可增加自定义选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该权限的标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间关联表（roleAuthority）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表（role）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2041,6 +2075,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2324,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3398,19 +3444,19 @@
       <c r="M43" s="28"/>
     </row>
     <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="70"/>
       <c r="I44" s="6" t="s">
         <v>324</v>
       </c>
@@ -3424,19 +3470,19 @@
       <c r="M44" s="28"/>
     </row>
     <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="70"/>
       <c r="I45" s="6" t="s">
         <v>326</v>
       </c>
@@ -3693,7 +3739,7 @@
         <v>117</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M55" s="35" t="s">
         <v>118</v>
@@ -3719,10 +3765,10 @@
         <v>121</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>123</v>
@@ -3746,16 +3792,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3782,10 +3828,10 @@
         <v>120</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M58" s="35"/>
     </row>
@@ -3806,16 +3852,16 @@
         <v>29</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M59" s="35"/>
     </row>
@@ -4150,10 +4196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4733,13 +4779,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4778,160 +4824,220 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>377</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>390</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="L36" s="23"/>
       <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
       <c r="I37" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="L37" s="23"/>
+        <v>386</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>385</v>
+      </c>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
-      <c r="I38" s="63" t="s">
+      <c r="I38" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="37"/>
+      <c r="I39" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J39" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="64" t="s">
+      <c r="K39" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="65"/>
-    </row>
-    <row r="39" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="28"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="37"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="65"/>
+    </row>
+    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="K40" s="66"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="I42" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J42" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="57" t="s">
+      <c r="K42" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="L41" s="58" t="s">
+      <c r="L42" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="M41" s="55"/>
-    </row>
-    <row r="42" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I42" s="59" t="s">
+      <c r="M42" s="55"/>
+    </row>
+    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J43" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K43" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="L42" s="60" t="s">
+      <c r="L43" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="M42" s="55"/>
-    </row>
-    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I43" s="63" t="s">
+      <c r="M43" s="55"/>
+    </row>
+    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="36"/>
+      <c r="I44" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="J43" s="64" t="s">
+      <c r="J44" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="K43" s="64" t="s">
+      <c r="K44" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="L43" s="65" t="s">
+      <c r="L44" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="M43" s="55"/>
+      <c r="M44" s="55"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="416">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1690,6 +1690,22 @@
   </si>
   <si>
     <t>roleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被删除false表示没有，true表示有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2368,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3975,21 +3991,19 @@
       <c r="F63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I63" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
@@ -4007,6 +4021,21 @@
       <c r="F64" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="I64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -4041,9 +4070,6 @@
       <c r="F66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
@@ -4061,131 +4087,136 @@
       <c r="F67" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I68" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="K68" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L67" s="18" t="s">
+      <c r="L68" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I68" s="4" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L69" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M68" s="33" t="s">
+      <c r="M69" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I69" s="6" t="s">
+    <row r="70" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I70" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I74" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" s="8"/>
+      <c r="M75" s="28"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I76" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K75" s="12" t="s">
+      <c r="K76" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="37"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4198,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jochenshi/Desktop/Personal/code/asset-activity/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -15,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1499,10 +1504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备归属表(ascription)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serialNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1692,11 +1693,39 @@
     <t>roleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>设备归属表(ascription)此为增加出入库记录的信息的表</t>
+    <rPh sb="17" eb="18">
+      <t>ci'wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chu'ru'ku</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2370,23 +2399,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="9" max="9" width="17.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="44" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="2"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2399,7 +2428,7 @@
         <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2496,7 +2525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2529,7 +2558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2689,7 +2718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2802,7 +2831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -2934,7 +2963,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2995,7 +3024,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>92</v>
@@ -3012,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>345</v>
@@ -3027,12 +3056,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -3059,12 +3088,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -3092,7 +3121,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>102</v>
@@ -3143,7 +3172,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="2:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="60" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3229,7 +3258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
@@ -3443,7 +3472,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
         <v>175</v>
       </c>
@@ -3469,7 +3498,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="105" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
         <v>177</v>
       </c>
@@ -3589,7 +3618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>338</v>
       </c>
@@ -3615,7 +3644,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
@@ -3667,7 +3696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>301</v>
       </c>
@@ -3713,7 +3742,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>41</v>
       </c>
@@ -3739,13 +3768,13 @@
         <v>117</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M55" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
@@ -3765,17 +3794,17 @@
         <v>121</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>123</v>
       </c>
       <c r="M56" s="35"/>
     </row>
-    <row r="57" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
@@ -3792,20 +3821,20 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="L57" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
@@ -3828,14 +3857,14 @@
         <v>120</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>95</v>
       </c>
@@ -3852,16 +3881,16 @@
         <v>29</v>
       </c>
       <c r="I59" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="K59" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="L59" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M59" s="35"/>
     </row>
@@ -3897,7 +3926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>305</v>
       </c>
@@ -3959,7 +3988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>38</v>
       </c>
@@ -4045,7 +4074,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4094,7 +4123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="I69" s="6" t="s">
         <v>193</v>
       </c>
@@ -4198,29 +4227,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="150" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3"/>
-    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="2"/>
-    <col min="14" max="16384" width="8.875" style="3"/>
+    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4321,7 +4350,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
         <v>210</v>
       </c>
@@ -4345,7 +4374,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>330</v>
       </c>
@@ -4371,11 +4400,11 @@
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -4391,7 +4420,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>220</v>
       </c>
@@ -4417,7 +4446,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>224</v>
       </c>
@@ -4512,7 +4541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
         <v>273</v>
       </c>
@@ -4525,7 +4554,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>239</v>
       </c>
@@ -4601,7 +4630,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
         <v>241</v>
       </c>
@@ -4627,7 +4656,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
         <v>242</v>
       </c>
@@ -4664,11 +4693,11 @@
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
@@ -4779,13 +4808,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4826,37 +4855,37 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>375</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="K36" s="23" t="s">
         <v>401</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="62"/>
     </row>
-    <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
@@ -4867,22 +4896,22 @@
         <v>218</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
@@ -4900,13 +4929,13 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="37"/>
@@ -4922,7 +4951,7 @@
       <c r="L39" s="64"/>
       <c r="M39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="66"/>
@@ -4938,7 +4967,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="E42" s="2"/>
@@ -4957,7 +4986,7 @@
       </c>
       <c r="M42" s="55"/>
     </row>
-    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
@@ -4987,15 +5016,15 @@
       </c>
       <c r="M43" s="55"/>
     </row>
-    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="36"/>
@@ -5015,26 +5044,26 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="37"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jochenshi/Desktop/Personal/code/asset-activity/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -20,18 +15,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,11 +1716,23 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2397,25 +2404,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="9" max="9" width="17.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="44" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="13" max="13" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2525,7 +2532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -2686,7 +2693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -2831,7 +2838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2970,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>88</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
@@ -3172,7 +3179,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="2:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="57" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
@@ -3472,7 +3479,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
         <v>175</v>
       </c>
@@ -3498,7 +3505,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
         <v>177</v>
       </c>
@@ -3618,7 +3625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>338</v>
       </c>
@@ -3644,7 +3651,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
@@ -3696,7 +3703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>301</v>
       </c>
@@ -3742,7 +3749,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>41</v>
       </c>
@@ -3774,7 +3781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3811,7 @@
       </c>
       <c r="M56" s="35"/>
     </row>
-    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3841,7 @@
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +3871,7 @@
       </c>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>95</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>305</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>38</v>
       </c>
@@ -4004,21 +4011,17 @@
       <c r="F63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I63" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
@@ -4036,6 +4039,21 @@
       <c r="F64" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="I64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -4070,11 +4088,8 @@
       <c r="F66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4090,131 +4105,136 @@
       <c r="F67" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I68" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="K68" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L67" s="18" t="s">
+      <c r="L68" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I68" s="4" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L69" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M68" s="33" t="s">
+      <c r="M69" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="I69" s="6" t="s">
+    <row r="70" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I70" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L70" s="8"/>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I71" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I74" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" s="8"/>
+      <c r="M75" s="28"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I76" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K75" s="12" t="s">
+      <c r="K76" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="37"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4231,20 +4251,20 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="3"/>
     <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="2"/>
+    <col min="14" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -4350,7 +4370,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
         <v>210</v>
       </c>
@@ -4374,7 +4394,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>330</v>
       </c>
@@ -4400,7 +4420,7 @@
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
@@ -4420,7 +4440,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>220</v>
       </c>
@@ -4446,7 +4466,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>224</v>
       </c>
@@ -4541,7 +4561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
         <v>273</v>
       </c>
@@ -4554,7 +4574,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>239</v>
       </c>
@@ -4630,7 +4650,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
         <v>241</v>
       </c>
@@ -4656,7 +4676,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
         <v>242</v>
       </c>
@@ -4693,7 +4713,7 @@
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
@@ -4877,7 +4897,7 @@
       <c r="L36" s="23"/>
       <c r="M36" s="62"/>
     </row>
-    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>375</v>
       </c>
@@ -4903,7 +4923,7 @@
       </c>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>377</v>
       </c>
@@ -4951,7 +4971,7 @@
       <c r="L39" s="64"/>
       <c r="M39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="66"/>
@@ -4986,7 +5006,7 @@
       </c>
       <c r="M42" s="55"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
@@ -5016,7 +5036,7 @@
       </c>
       <c r="M43" s="55"/>
     </row>
-    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>406</v>
       </c>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1299,10 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>takeTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领用设备的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,10 +1307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>takeNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领用设备的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1388,10 +1380,6 @@
   </si>
   <si>
     <t>领用详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeDetal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1726,6 +1714,18 @@
   </si>
   <si>
     <t>是否已经被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendDetal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2435,7 +2435,7 @@
         <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2649,7 +2649,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2745,7 +2745,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2774,13 +2774,13 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>31</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>92</v>
@@ -3048,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
@@ -3068,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>89</v>
@@ -3100,7 +3100,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>97</v>
@@ -3128,25 +3128,25 @@
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
@@ -3162,13 +3162,13 @@
         <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>154</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>31</v>
@@ -3323,7 +3323,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M37" s="28" t="s">
         <v>76</v>
@@ -3423,10 +3423,10 @@
         <v>317</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="28"/>
@@ -3444,13 +3444,13 @@
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
@@ -3468,13 +3468,13 @@
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
@@ -3494,13 +3494,13 @@
       </c>
       <c r="F44" s="70"/>
       <c r="I44" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
@@ -3520,13 +3520,13 @@
       </c>
       <c r="F45" s="70"/>
       <c r="I45" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
@@ -3546,13 +3546,13 @@
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
@@ -3627,13 +3627,13 @@
     </row>
     <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
@@ -3775,7 +3775,7 @@
         <v>117</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M55" s="35" t="s">
         <v>118</v>
@@ -3789,7 +3789,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -3801,10 +3801,10 @@
         <v>121</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>123</v>
@@ -3819,7 +3819,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
@@ -3828,16 +3828,16 @@
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J57" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="L57" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -3864,10 +3864,10 @@
         <v>120</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M58" s="35"/>
     </row>
@@ -3888,16 +3888,16 @@
         <v>29</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J59" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>397</v>
       </c>
       <c r="M59" s="35"/>
     </row>
@@ -3980,13 +3980,13 @@
       </c>
       <c r="F62" s="28"/>
       <c r="I62" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -4012,13 +4012,13 @@
         <v>30</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="28"/>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>31</v>
@@ -4269,7 +4269,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4396,13 +4396,13 @@
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="52"/>
@@ -4424,7 +4424,7 @@
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -4481,13 +4481,13 @@
       </c>
       <c r="F12" s="40"/>
       <c r="I12" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
@@ -4583,13 +4583,13 @@
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="I19" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4639,7 +4639,7 @@
         <v>215</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>275</v>
@@ -4665,13 +4665,13 @@
       </c>
       <c r="F22" s="49"/>
       <c r="I22" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
@@ -4689,26 +4689,26 @@
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="I23" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>212</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
@@ -4717,7 +4717,7 @@
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4875,37 +4875,37 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
@@ -4916,22 +4916,22 @@
         <v>218</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M37" s="62"/>
     </row>
     <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="28"/>
@@ -4949,24 +4949,24 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="37"/>
       <c r="I39" s="63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J39" s="64" t="s">
         <v>122</v>
       </c>
       <c r="K39" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L39" s="64"/>
       <c r="M39" s="65"/>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="E42" s="2"/>
@@ -5038,13 +5038,13 @@
     </row>
     <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="36"/>
@@ -5064,26 +5064,26 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="37"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jochenshi/Desktop/Personal/code/asset-activity/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3135" windowWidth="38400" windowHeight="21135"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -15,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="423">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,14 +949,6 @@
   </si>
   <si>
     <t>机器配件关联表(mfrelated)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作记录表(operate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用记录表(usage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1728,11 +1725,117 @@
     <t>lendDetal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否有效</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true/false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的关联状态</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配件是否被关联</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'jain</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前记录是否有效</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表明当前是最新记录还是历史记录</t>
+    <rPh sb="0" eb="1">
+      <t>biao'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui'xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li'shi'ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作记录表(operate_list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用记录表(use_record)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2404,30 +2507,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="9" max="9" width="17.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="44" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="2"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2435,7 +2538,7 @@
         <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2532,7 +2635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2559,13 +2662,13 @@
         <v>60</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2676,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -2597,7 +2700,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2752,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>71</v>
@@ -2693,7 +2796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2725,27 +2828,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>417</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>30</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="I12" s="6" t="s">
         <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>80</v>
@@ -2757,30 +2858,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>31</v>
@@ -2791,13 +2892,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -2823,35 +2924,52 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+    <row r="17" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F17" s="37" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2861,9 +2979,6 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
       <c r="I19" s="16" t="s">
         <v>5</v>
       </c>
@@ -2881,20 +2996,8 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>27</v>
+      <c r="B20" t="s">
+        <v>226</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>124</v>
@@ -2913,20 +3016,20 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>28</v>
+      <c r="B21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>128</v>
@@ -2943,19 +3046,19 @@
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -2970,21 +3073,21 @@
       <c r="L22" s="8"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>134</v>
@@ -2998,21 +3101,21 @@
       <c r="L23" s="8"/>
       <c r="M23" s="28"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>137</v>
@@ -3028,53 +3131,53 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>29</v>
@@ -3095,15 +3198,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>15</v>
@@ -3123,91 +3226,104 @@
       <c r="L28" s="32"/>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="28"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F30" s="28" t="s">
+      <c r="E31" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J30" s="12" t="s">
+      <c r="I31" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K31" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="2:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="37"/>
+    </row>
+    <row r="32" spans="2:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>28</v>
@@ -3215,13 +3331,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
@@ -3229,394 +3345,394 @@
       <c r="F33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F35" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I35" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="30" t="s">
+      <c r="M35" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+    <row r="36" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F36" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="36" t="s">
+      <c r="M36" s="36" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="M37" s="28" t="s">
+      <c r="L38" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="28"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+      <c r="L39" s="8"/>
+      <c r="M39" s="28"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="28"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+      <c r="M40" s="28"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D41" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="M41" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="28"/>
-      <c r="I41" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="28"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="28"/>
       <c r="I42" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="28"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="28"/>
       <c r="I43" s="6" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="70"/>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="28"/>
       <c r="I44" s="6" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F45" s="70"/>
       <c r="I45" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="28"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="28"/>
+    <row r="46" spans="2:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="B46" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="70"/>
       <c r="I46" s="6" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="28"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="F47" s="28"/>
-      <c r="I47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>28</v>
+      <c r="I47" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="I48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
@@ -3625,261 +3741,248 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F51" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
+      <c r="I51" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F52" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I52" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J52" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="18" t="s">
+      <c r="L52" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="M52" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="I52" s="31" t="s">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="I53" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K52" s="32" t="s">
+      <c r="K53" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L53" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M53" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>301</v>
-      </c>
-      <c r="I53" s="34" t="s">
+    <row r="54" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M53" s="35"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="16" t="s">
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E55" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F55" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I55" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="35"/>
-    </row>
-    <row r="55" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
+      <c r="L55" s="10"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E56" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F56" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="I56" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="M55" s="35" t="s">
+      <c r="L56" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="M56" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="6" t="s">
+    <row r="57" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="D57" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M56" s="35"/>
-    </row>
-    <row r="57" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>388</v>
+        <v>123</v>
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>15</v>
@@ -3888,75 +3991,73 @@
         <v>29</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>390</v>
+        <v>119</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>391</v>
+        <v>120</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M59" s="35"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>51</v>
+      <c r="I60" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="M60" s="35"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>24</v>
@@ -3965,105 +4066,105 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="E63" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F62" s="28"/>
-      <c r="I62" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="F63" s="28"/>
+      <c r="I63" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K62" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="L62" s="8" t="s">
+      <c r="K63" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M62" s="28" t="s">
+      <c r="M63" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="28"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E64" s="8" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="F64" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I64" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>24</v>
@@ -4071,170 +4172,202 @@
       <c r="F65" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="I65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="D67" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F67" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+    <row r="68" spans="2:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="B68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F68" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I69" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J68" s="18" t="s">
+      <c r="J69" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="K69" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="L69" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M69" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I69" s="4" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K70" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L69" s="26" t="s">
+      <c r="L70" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M69" s="33" t="s">
+      <c r="M70" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="I70" s="6" t="s">
+    <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="I71" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="L71" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M70" s="28"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I71" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L71" s="8"/>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I72" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I73" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I74" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I75" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="28"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="28"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I77" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="37"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4245,43 +4378,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3"/>
-    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="2"/>
-    <col min="14" max="16384" width="8.875" style="3"/>
+    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="I4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4333,13 +4466,13 @@
         <v>215</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>253</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="36"/>
@@ -4352,25 +4485,25 @@
         <v>218</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>219</v>
       </c>
       <c r="F7" s="49"/>
       <c r="I7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
         <v>210</v>
       </c>
@@ -4383,64 +4516,64 @@
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
       <c r="I8" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>223</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="52"/>
       <c r="I9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="I10" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>220</v>
       </c>
@@ -4455,65 +4588,65 @@
       </c>
       <c r="F11" s="40"/>
       <c r="I11" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>224</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>293</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>295</v>
       </c>
       <c r="F12" s="40"/>
       <c r="I12" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="52" t="s">
         <v>296</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>298</v>
       </c>
       <c r="F13" s="40"/>
       <c r="I13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="37"/>
@@ -4527,7 +4660,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -4541,7 +4674,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="I16" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -4561,35 +4694,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>220</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="I19" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="28"/>
@@ -4611,26 +4744,26 @@
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>211</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>214</v>
@@ -4639,85 +4772,85 @@
         <v>215</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B22" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>218</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>219</v>
       </c>
       <c r="F22" s="49"/>
       <c r="I22" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>173</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
       <c r="I23" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>357</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>212</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
@@ -4725,16 +4858,16 @@
         <v>220</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M25" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -4744,19 +4877,19 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="I26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="M26" s="36" t="s">
         <v>284</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
@@ -4774,37 +4907,37 @@
       </c>
       <c r="F27" s="40"/>
       <c r="I27" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>232</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>234</v>
       </c>
       <c r="F28" s="40"/>
       <c r="I28" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
@@ -4813,28 +4946,28 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="I34" s="54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -4875,103 +5008,114 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="36"/>
       <c r="I36" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="K36" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>398</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="62"/>
     </row>
-    <row r="37" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="28"/>
       <c r="I37" s="61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J37" s="23" t="s">
         <v>218</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="F38" s="28"/>
       <c r="I38" s="61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>173</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="62"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="28"/>
       <c r="I39" s="63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J39" s="64" t="s">
         <v>122</v>
       </c>
       <c r="K39" s="64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L39" s="64"/>
       <c r="M39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="37"/>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="66"/>
@@ -4986,12 +5130,6 @@
       <c r="M41" s="55"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
       <c r="I42" s="56" t="s">
         <v>211</v>
       </c>
@@ -5006,87 +5144,95 @@
       </c>
       <c r="M42" s="55"/>
     </row>
-    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="I43" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="M43" s="55"/>
+    </row>
+    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="K43" s="26" t="s">
+      <c r="I44" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="J44" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="K44" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="L44" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M43" s="55"/>
-    </row>
-    <row r="44" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+      <c r="M44" s="55"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="36"/>
-      <c r="I44" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="J44" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="L44" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="M44" s="55"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="37"/>
+      <c r="C47" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="19540"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="关键信息表" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="423">
   <si>
     <t>S/N号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1824,11 +1824,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作记录表(operate_list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用记录表(use_record)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作记录表(operation_record)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3363,7 +3363,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>36</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5131,18 +5131,16 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I42" s="56" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="K42" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="L42" s="58" t="s">
+      <c r="K42" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="M42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -5152,18 +5150,16 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="I43" s="59" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="K43" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="K43" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="M43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
@@ -5182,18 +5178,16 @@
         <v>27</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J44" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="L44" s="65" t="s">
+      <c r="K44" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="M44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
